--- a/data/trans_bre/P16A11-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Dificultad-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para la tensión arterial en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A11-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1343236576634913</v>
+        <v>0.01021120063124321</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.223003104075901</v>
+        <v>4.112748213748081</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.86210825332226</v>
+        <v>3.052863284140932</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.076565322214292</v>
+        <v>6.222515393163587</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.002710135612451305</v>
+        <v>-0.0004398070311940199</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2366149672849701</v>
+        <v>0.2330462458562139</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.185600863034479</v>
+        <v>0.1982555885525285</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.308351769783332</v>
+        <v>0.3070989817073633</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.802536022953344</v>
+        <v>9.055688708769388</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.95965330715194</v>
+        <v>11.10273427441272</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.303049246411074</v>
+        <v>9.454165072675998</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.78961659510578</v>
+        <v>15.05326555339223</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.515057193327789</v>
+        <v>0.5406925927642646</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8013476042520241</v>
+        <v>0.8070864454004494</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7582929307042168</v>
+        <v>0.7503876151475134</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.000789462039205</v>
+        <v>1.054452805195976</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.303990091198922</v>
+        <v>1.189948185738949</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.7682182236244628</v>
+        <v>-0.6262295281371402</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.635031495478948</v>
+        <v>-1.575603825295902</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5172741994989988</v>
+        <v>0.7750542135745858</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.09850501185118531</v>
+        <v>0.09046519585039353</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.04385804192801172</v>
+        <v>-0.04243290306264049</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1046587879677421</v>
+        <v>-0.1019415923107429</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.02341455216685964</v>
+        <v>0.04114496944870667</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.974471857433019</v>
+        <v>7.008055609097319</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.594203181271705</v>
+        <v>6.352083313700597</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.487313931267106</v>
+        <v>5.348279720710682</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.70546835783548</v>
+        <v>6.664940154761946</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6622715543606246</v>
+        <v>0.6929335550288183</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.411443783863293</v>
+        <v>0.4052317562127934</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4189796063728295</v>
+        <v>0.4073669133056463</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4153977035275688</v>
+        <v>0.4255024830146764</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.364138172171256</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-2.364653971487565</v>
+        <v>-2.36465397148756</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1220994566209128</v>
@@ -849,7 +849,7 @@
         <v>0.085690546148411</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.115772094063955</v>
+        <v>-0.1157720940639547</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.395564981021181</v>
+        <v>-1.549212789391452</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5983971701541472</v>
+        <v>-0.2139757697060984</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.295724317553642</v>
+        <v>-2.486947683250298</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.497240323938884</v>
+        <v>-5.242761845499695</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1080537896028091</v>
+        <v>-0.1264869710370492</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.02697780453225844</v>
+        <v>-0.009803014951085357</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1305910000639067</v>
+        <v>-0.1470574895283005</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2524002911555424</v>
+        <v>-0.2308690813020292</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.240336308706703</v>
+        <v>4.413187373387367</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.277487014491641</v>
+        <v>7.823852686697521</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.434545022886804</v>
+        <v>5.527218426503769</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4401159630896476</v>
+        <v>0.5960449606297376</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4163154632544808</v>
+        <v>0.4200279414322085</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4631239327507071</v>
+        <v>0.5037113576319505</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3682504243934753</v>
+        <v>0.3724375273509346</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.02362239453949085</v>
+        <v>0.03573618824946644</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.965893627673966</v>
+        <v>-2.654709866121626</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.127937838914545</v>
+        <v>-4.831497045955402</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-5.917386364877076</v>
+        <v>-5.705642513959595</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.625226871059873</v>
+        <v>-5.434130153124793</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2868668833472295</v>
+        <v>-0.2615058418271284</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2355967463023783</v>
+        <v>-0.2744385752875812</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3172842550026937</v>
+        <v>-0.3086219789816229</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.256980889191217</v>
+        <v>-0.2606659663767519</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.368668599342465</v>
+        <v>5.953570882161531</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.77330823391959</v>
+        <v>4.960125281638306</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.988318070295451</v>
+        <v>3.909656624015482</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4904322592974669</v>
+        <v>0.8823348123386581</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6995853204555212</v>
+        <v>0.8417160666972278</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4474788137621528</v>
+        <v>0.384836971313018</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3054484430553936</v>
+        <v>0.2866950898508162</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.02759606369257176</v>
+        <v>0.05056113803087955</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.849058851948944</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.578027666652196</v>
+        <v>1.578027666652199</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3170832951869793</v>
@@ -1049,7 +1049,7 @@
         <v>0.1917617625531629</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.08335373056408316</v>
+        <v>0.08335373056408331</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.360832842670689</v>
+        <v>2.260629053539065</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.388463657167788</v>
+        <v>2.386734459229286</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9575361581447031</v>
+        <v>0.9900737733510849</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.0009566506504679178</v>
+        <v>0.01748105221749859</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1748502624878422</v>
+        <v>0.1661358772181896</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1329192496633853</v>
+        <v>0.1370137376625721</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06076987130288167</v>
+        <v>0.06259614169970427</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.0005430158241854907</v>
+        <v>0.00106929781887941</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.731643289667741</v>
+        <v>5.640208181848623</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.294252000082595</v>
+        <v>6.371568248721355</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.697966795782343</v>
+        <v>4.425427166303885</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.227084722934306</v>
+        <v>3.206627055810852</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4768670705732017</v>
+        <v>0.482003304128955</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4044834938949433</v>
+        <v>0.4063822349697949</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3347689869504044</v>
+        <v>0.3169661417777392</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1794057519235795</v>
+        <v>0.1810761169892038</v>
       </c>
     </row>
     <row r="19">
